--- a/dataFiles/Spring2023_FullSongData.xlsx
+++ b/dataFiles/Spring2023_FullSongData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njh5464/Documents/GitHub/STAT461/dataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83B82A6-A995-6341-868B-7A1AE395733A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21398AD9-8E2C-6F4A-8B2F-BE3CE4DC1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{BE3851E8-117E-E742-AE0D-21ED92FDB22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -424,61 +402,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCE87B6-9196-8746-9B47-2C27349A1BB8}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="str" cm="1">
-        <f t="array" ref="D1:D3">_xlfn.UNIQUE(A2:A26)</f>
-        <v>Senior</v>
-      </c>
-      <c r="E1">
-        <f>COUNTIF(A2:A26,D1)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="D2" t="str">
-        <v>Junior</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E3" si="0">COUNTIF(A3:A27,D2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="D3" t="str">
-        <v>Other</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -486,7 +442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -494,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -502,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -510,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -518,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -526,7 +482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -534,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -542,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -550,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -558,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -566,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -574,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -660,6 +616,214 @@
       </c>
       <c r="B26">
         <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
